--- a/wholecell-integration/variables_used_by transcriptionteam.xlsx
+++ b/wholecell-integration/variables_used_by transcriptionteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>model parameter of team transcription</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>write</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -485,17 +488,20 @@
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1">
+    <row r="2" spans="1:5" ht="24.95" customHeight="1">
       <c r="D2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -506,7 +512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1">
+    <row r="4" spans="1:5" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -517,7 +523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1">
+    <row r="5" spans="1:5" ht="24.95" customHeight="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -528,7 +534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1">
+    <row r="6" spans="1:5" ht="24.95" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -539,7 +545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1">
+    <row r="7" spans="1:5" ht="24.95" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -550,7 +556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1">
+    <row r="8" spans="1:5" ht="24.95" customHeight="1">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -561,7 +567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1">
+    <row r="9" spans="1:5" ht="24.95" customHeight="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -572,7 +578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1">
+    <row r="10" spans="1:5" ht="24.95" customHeight="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -583,7 +589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1">
+    <row r="11" spans="1:5" ht="24.95" customHeight="1">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -594,7 +600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1">
+    <row r="12" spans="1:5" ht="24.95" customHeight="1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -605,7 +611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1">
+    <row r="13" spans="1:5" ht="24.95" customHeight="1">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -616,7 +622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24.95" customHeight="1">
+    <row r="14" spans="1:5" ht="24.95" customHeight="1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -627,7 +633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24.95" customHeight="1">
+    <row r="15" spans="1:5" ht="24.95" customHeight="1">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -638,7 +644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24.95" customHeight="1">
+    <row r="16" spans="1:5" ht="24.95" customHeight="1">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -825,7 +831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1">
+    <row r="33" spans="1:5" ht="24.95" customHeight="1">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -836,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.95" customHeight="1">
+    <row r="34" spans="1:5" ht="24.95" customHeight="1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -847,7 +853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.95" customHeight="1">
+    <row r="35" spans="1:5" ht="24.95" customHeight="1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -858,40 +864,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.95" customHeight="1">
+    <row r="36" spans="1:5" ht="24.95" customHeight="1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="24.95" customHeight="1">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24.95" customHeight="1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="24.95" customHeight="1">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24.95" customHeight="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="24.95" customHeight="1">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24.95" customHeight="1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
